--- a/Code/Results/Cases/Case_2_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_110/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9840097347744964</v>
+        <v>1.0348586989063</v>
       </c>
       <c r="D2">
-        <v>1.004233643143931</v>
+        <v>1.03518228688624</v>
       </c>
       <c r="E2">
-        <v>0.996591740538064</v>
+        <v>1.052685556582033</v>
       </c>
       <c r="F2">
-        <v>0.9986315367097773</v>
+        <v>1.058434210375272</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036207923795973</v>
+        <v>1.031415978026885</v>
       </c>
       <c r="J2">
-        <v>1.006679462247608</v>
+        <v>1.039975641509913</v>
       </c>
       <c r="K2">
-        <v>1.015634310023481</v>
+        <v>1.037979625199116</v>
       </c>
       <c r="L2">
-        <v>1.008098762939925</v>
+        <v>1.055433604647065</v>
       </c>
       <c r="M2">
-        <v>1.010109969380093</v>
+        <v>1.061166455185883</v>
       </c>
       <c r="N2">
-        <v>1.008109062551747</v>
+        <v>1.041452526207731</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9919888691122899</v>
+        <v>1.036398705491944</v>
       </c>
       <c r="D3">
-        <v>1.009908538226803</v>
+        <v>1.036280728354912</v>
       </c>
       <c r="E3">
-        <v>1.004118822310911</v>
+        <v>1.054252431329086</v>
       </c>
       <c r="F3">
-        <v>1.006871808453174</v>
+        <v>1.060149970306888</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038137275065096</v>
+        <v>1.031697048063639</v>
       </c>
       <c r="J3">
-        <v>1.012700333916945</v>
+        <v>1.041155972686871</v>
       </c>
       <c r="K3">
-        <v>1.020416188043763</v>
+        <v>1.038886639757722</v>
       </c>
       <c r="L3">
-        <v>1.014699271914554</v>
+        <v>1.056811441345373</v>
       </c>
       <c r="M3">
-        <v>1.017417511834137</v>
+        <v>1.062693962937536</v>
       </c>
       <c r="N3">
-        <v>1.014138484549459</v>
+        <v>1.042634533590346</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9969810539499896</v>
+        <v>1.037392972569845</v>
       </c>
       <c r="D4">
-        <v>1.013461774702699</v>
+        <v>1.036989459457073</v>
       </c>
       <c r="E4">
-        <v>1.008842793025617</v>
+        <v>1.055265232647773</v>
       </c>
       <c r="F4">
-        <v>1.012042361090538</v>
+        <v>1.061259101552275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039330866615787</v>
+        <v>1.031876722318253</v>
       </c>
       <c r="J4">
-        <v>1.016462301212709</v>
+        <v>1.04191716716419</v>
       </c>
       <c r="K4">
-        <v>1.023400398226285</v>
+        <v>1.039470924486024</v>
       </c>
       <c r="L4">
-        <v>1.018835652132346</v>
+        <v>1.0577014343427</v>
       </c>
       <c r="M4">
-        <v>1.021997586015853</v>
+        <v>1.063680823197225</v>
       </c>
       <c r="N4">
-        <v>1.017905794270286</v>
+        <v>1.043396809051133</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9990413470058277</v>
+        <v>1.037810440644078</v>
       </c>
       <c r="D5">
-        <v>1.014928704560738</v>
+        <v>1.037286928819531</v>
       </c>
       <c r="E5">
-        <v>1.010795830826018</v>
+        <v>1.055690767137729</v>
       </c>
       <c r="F5">
-        <v>1.014179818644417</v>
+        <v>1.061725132063025</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039820144238822</v>
+        <v>1.031951733448762</v>
       </c>
       <c r="J5">
-        <v>1.018013594660915</v>
+        <v>1.042236568038801</v>
       </c>
       <c r="K5">
-        <v>1.024630063062574</v>
+        <v>1.039715937336161</v>
       </c>
       <c r="L5">
-        <v>1.020544305567723</v>
+        <v>1.058075222600292</v>
       </c>
       <c r="M5">
-        <v>1.023889679584754</v>
+        <v>1.064095340101512</v>
       </c>
       <c r="N5">
-        <v>1.019459290733125</v>
+        <v>1.043716663511621</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9993850940277594</v>
+        <v>1.037880505052463</v>
       </c>
       <c r="D6">
-        <v>1.01517347754526</v>
+        <v>1.037336847183029</v>
       </c>
       <c r="E6">
-        <v>1.011121883347768</v>
+        <v>1.055762202025601</v>
       </c>
       <c r="F6">
-        <v>1.014536647820176</v>
+        <v>1.061803366376928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039901579514885</v>
+        <v>1.031964297482231</v>
       </c>
       <c r="J6">
-        <v>1.018272340514989</v>
+        <v>1.042290161567373</v>
       </c>
       <c r="K6">
-        <v>1.024835108449981</v>
+        <v>1.039757039845187</v>
       </c>
       <c r="L6">
-        <v>1.020829473434663</v>
+        <v>1.058137962148778</v>
       </c>
       <c r="M6">
-        <v>1.024205472624781</v>
+        <v>1.064164918524633</v>
       </c>
       <c r="N6">
-        <v>1.019718404035991</v>
+        <v>1.043770333149151</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9970087315504048</v>
+        <v>1.037398552837078</v>
       </c>
       <c r="D7">
-        <v>1.013481479401187</v>
+        <v>1.036993436140966</v>
       </c>
       <c r="E7">
-        <v>1.008869016247368</v>
+        <v>1.055270919620216</v>
       </c>
       <c r="F7">
-        <v>1.012071061291874</v>
+        <v>1.061265329637529</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039337452741538</v>
+        <v>1.031877726676875</v>
       </c>
       <c r="J7">
-        <v>1.016483146193738</v>
+        <v>1.041921437383724</v>
       </c>
       <c r="K7">
-        <v>1.023416925099156</v>
+        <v>1.039474200791013</v>
       </c>
       <c r="L7">
-        <v>1.018858599792896</v>
+        <v>1.05770643034256</v>
       </c>
       <c r="M7">
-        <v>1.022022996679218</v>
+        <v>1.063686363392021</v>
       </c>
       <c r="N7">
-        <v>1.01792666885358</v>
+        <v>1.043401085334868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9867432656223232</v>
+        <v>1.035379616903307</v>
       </c>
       <c r="D8">
-        <v>1.006177104050172</v>
+        <v>1.035553934945533</v>
       </c>
       <c r="E8">
-        <v>0.9991672676193447</v>
+        <v>1.053215316706337</v>
       </c>
       <c r="F8">
-        <v>1.001451329359818</v>
+        <v>1.05901428936664</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036871700130765</v>
+        <v>1.031511423047827</v>
       </c>
       <c r="J8">
-        <v>1.008743133189001</v>
+        <v>1.040375074155712</v>
       </c>
       <c r="K8">
-        <v>1.017274047638666</v>
+        <v>1.038286699614192</v>
       </c>
       <c r="L8">
-        <v>1.010358530621748</v>
+        <v>1.055899579069422</v>
       </c>
       <c r="M8">
-        <v>1.012611677291678</v>
+        <v>1.061683007991642</v>
       </c>
       <c r="N8">
-        <v>1.010175664142584</v>
+        <v>1.041852526093702</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9672201971155203</v>
+        <v>1.031804553148846</v>
       </c>
       <c r="D9">
-        <v>0.992315791932632</v>
+        <v>1.033001512763185</v>
       </c>
       <c r="E9">
-        <v>0.9808397921954183</v>
+        <v>1.049584457144414</v>
       </c>
       <c r="F9">
-        <v>0.9813797299603182</v>
+        <v>1.055038931719709</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032075628201252</v>
+        <v>1.030849033274505</v>
       </c>
       <c r="J9">
-        <v>0.9939860725636488</v>
+        <v>1.037630259800056</v>
       </c>
       <c r="K9">
-        <v>1.005534782613938</v>
+        <v>1.036173903117914</v>
       </c>
       <c r="L9">
-        <v>0.9942515728015995</v>
+        <v>1.052703348290705</v>
       </c>
       <c r="M9">
-        <v>0.9947823094074871</v>
+        <v>1.05814062776088</v>
       </c>
       <c r="N9">
-        <v>0.9953976467984852</v>
+        <v>1.039103813786826</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.953038723251861</v>
+        <v>1.029408837293565</v>
       </c>
       <c r="D10">
-        <v>0.9822807462709758</v>
+        <v>1.031288884022143</v>
       </c>
       <c r="E10">
-        <v>0.9676179588766326</v>
+        <v>1.047157497773954</v>
       </c>
       <c r="F10">
-        <v>0.9668899752793042</v>
+        <v>1.052382167537013</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028524931754317</v>
+        <v>1.030395938249248</v>
       </c>
       <c r="J10">
-        <v>0.9832479316414335</v>
+        <v>1.035786525554226</v>
       </c>
       <c r="K10">
-        <v>0.9969774708850835</v>
+        <v>1.034751399737719</v>
       </c>
       <c r="L10">
-        <v>0.9825975754448076</v>
+        <v>1.050563699913741</v>
       </c>
       <c r="M10">
-        <v>0.9818839305890978</v>
+        <v>1.055770237834187</v>
       </c>
       <c r="N10">
-        <v>0.9846442564844787</v>
+        <v>1.037257461226887</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9465667304834234</v>
+        <v>1.028368401535679</v>
       </c>
       <c r="D11">
-        <v>0.9777125036782867</v>
+        <v>1.030544602081528</v>
       </c>
       <c r="E11">
-        <v>0.9616074593151376</v>
+        <v>1.046104951486897</v>
       </c>
       <c r="F11">
-        <v>0.9603000087102037</v>
+        <v>1.051230065932639</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026890161239086</v>
+        <v>1.030196985911631</v>
       </c>
       <c r="J11">
-        <v>0.9783446652660207</v>
+        <v>1.034984777701611</v>
       </c>
       <c r="K11">
-        <v>0.9930673352308016</v>
+        <v>1.034132048228731</v>
       </c>
       <c r="L11">
-        <v>0.9772916341294728</v>
+        <v>1.049634994144926</v>
       </c>
       <c r="M11">
-        <v>0.9760115617463916</v>
+        <v>1.054741612399846</v>
       </c>
       <c r="N11">
-        <v>0.9797340269083998</v>
+        <v>1.036454574800361</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9441074093485989</v>
+        <v>1.027981463450201</v>
       </c>
       <c r="D12">
-        <v>0.9759786526456357</v>
+        <v>1.030267729413838</v>
       </c>
       <c r="E12">
-        <v>0.9593272310744179</v>
+        <v>1.045713728629044</v>
       </c>
       <c r="F12">
-        <v>0.9577994025653616</v>
+        <v>1.050801855310405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026266952919858</v>
+        <v>1.030122669038401</v>
       </c>
       <c r="J12">
-        <v>0.9764812159090255</v>
+        <v>1.03468645319292</v>
       </c>
       <c r="K12">
-        <v>0.9915810021328911</v>
+        <v>1.033901476159345</v>
       </c>
       <c r="L12">
-        <v>0.9752774656492682</v>
+        <v>1.049289686903293</v>
       </c>
       <c r="M12">
-        <v>0.9737823603215137</v>
+        <v>1.054359188456337</v>
       </c>
       <c r="N12">
-        <v>0.9778679312395773</v>
+        <v>1.03615582663665</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9446375450846576</v>
+        <v>1.028064484621766</v>
       </c>
       <c r="D13">
-        <v>0.9763523061609223</v>
+        <v>1.030327138356414</v>
       </c>
       <c r="E13">
-        <v>0.9598185896777591</v>
+        <v>1.045797659223051</v>
       </c>
       <c r="F13">
-        <v>0.9583382755671874</v>
+        <v>1.050893720309309</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026401380664459</v>
+        <v>1.030138629177091</v>
       </c>
       <c r="J13">
-        <v>0.9768829120755536</v>
+        <v>1.034750468474347</v>
       </c>
       <c r="K13">
-        <v>0.9919014176098664</v>
+        <v>1.033950958171809</v>
       </c>
       <c r="L13">
-        <v>0.9757115475798701</v>
+        <v>1.049363772240048</v>
       </c>
       <c r="M13">
-        <v>0.9742627860988238</v>
+        <v>1.054441235562819</v>
       </c>
       <c r="N13">
-        <v>0.9782701978607369</v>
+        <v>1.036219932827119</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9463646063576813</v>
+        <v>1.02833642685011</v>
       </c>
       <c r="D14">
-        <v>0.9775699600233236</v>
+        <v>1.030521724171918</v>
       </c>
       <c r="E14">
-        <v>0.961419977586779</v>
+        <v>1.046072618259682</v>
       </c>
       <c r="F14">
-        <v>0.9600944188857495</v>
+        <v>1.051194675465555</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026838981315811</v>
+        <v>1.030190851379779</v>
       </c>
       <c r="J14">
-        <v>0.9781915177358004</v>
+        <v>1.034960128758114</v>
       </c>
       <c r="K14">
-        <v>0.9929451868414345</v>
+        <v>1.034112999662813</v>
       </c>
       <c r="L14">
-        <v>0.9771260529737336</v>
+        <v>1.049606458030501</v>
       </c>
       <c r="M14">
-        <v>0.975828303600746</v>
+        <v>1.054710008255877</v>
       </c>
       <c r="N14">
-        <v>0.9795806618911204</v>
+        <v>1.036429890852537</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9474211920911612</v>
+        <v>1.02850391627418</v>
       </c>
       <c r="D15">
-        <v>0.9783151797009898</v>
+        <v>1.030641559942816</v>
       </c>
       <c r="E15">
-        <v>0.9624001739763655</v>
+        <v>1.046241994762301</v>
       </c>
       <c r="F15">
-        <v>0.9611692658940262</v>
+        <v>1.051380067873935</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027106439370518</v>
+        <v>1.03022297185277</v>
       </c>
       <c r="J15">
-        <v>0.9789920742284066</v>
+        <v>1.035089238247028</v>
       </c>
       <c r="K15">
-        <v>0.9935836875644983</v>
+        <v>1.034212770015696</v>
       </c>
       <c r="L15">
-        <v>0.9779916982461354</v>
+        <v>1.049755938782699</v>
       </c>
       <c r="M15">
-        <v>0.9767863620315361</v>
+        <v>1.05487556170193</v>
       </c>
       <c r="N15">
-        <v>0.9803823552657716</v>
+        <v>1.036559183691734</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9534608127796771</v>
+        <v>1.02947782178547</v>
       </c>
       <c r="D16">
-        <v>0.9825789404657249</v>
+        <v>1.031338222013185</v>
       </c>
       <c r="E16">
-        <v>0.9680104515628888</v>
+        <v>1.047227315927514</v>
       </c>
       <c r="F16">
-        <v>0.9673202377455431</v>
+        <v>1.052458591726586</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028631264434494</v>
+        <v>1.030409083708095</v>
       </c>
       <c r="J16">
-        <v>0.9835676701974604</v>
+        <v>1.035839662541792</v>
       </c>
       <c r="K16">
-        <v>0.9972323998664337</v>
+        <v>1.034792431882884</v>
       </c>
       <c r="L16">
-        <v>0.9829438906470219</v>
+        <v>1.050625287311882</v>
       </c>
       <c r="M16">
-        <v>0.9822672161420566</v>
+        <v>1.055838456335216</v>
       </c>
       <c r="N16">
-        <v>0.9849644491059297</v>
+        <v>1.037310673675071</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9571569444826308</v>
+        <v>1.03008789532949</v>
       </c>
       <c r="D17">
-        <v>0.985191473270797</v>
+        <v>1.031774491149485</v>
       </c>
       <c r="E17">
-        <v>0.9714500748732047</v>
+        <v>1.047844930272213</v>
       </c>
       <c r="F17">
-        <v>0.9710905025464298</v>
+        <v>1.053134655855689</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029560798437284</v>
+        <v>1.030525086230553</v>
       </c>
       <c r="J17">
-        <v>0.986367254395017</v>
+        <v>1.036309467582625</v>
       </c>
       <c r="K17">
-        <v>0.9994642290655671</v>
+        <v>1.035155123890688</v>
       </c>
       <c r="L17">
-        <v>0.9859779166934807</v>
+        <v>1.051170003924254</v>
       </c>
       <c r="M17">
-        <v>0.9856251459176302</v>
+        <v>1.056441849335459</v>
       </c>
       <c r="N17">
-        <v>0.9877680090341633</v>
+        <v>1.037781145892949</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9592812860405331</v>
+        <v>1.030443445027365</v>
       </c>
       <c r="D18">
-        <v>0.9866940656011645</v>
+        <v>1.032028699305496</v>
       </c>
       <c r="E18">
-        <v>0.9734291756867313</v>
+        <v>1.048205015180762</v>
       </c>
       <c r="F18">
-        <v>0.9732595656696832</v>
+        <v>1.053528828956184</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030093694686199</v>
+        <v>1.0305924824923</v>
       </c>
       <c r="J18">
-        <v>0.9879760427496166</v>
+        <v>1.036583169598945</v>
       </c>
       <c r="K18">
-        <v>1.000746498742069</v>
+        <v>1.035366348593622</v>
       </c>
       <c r="L18">
-        <v>0.9877228793277555</v>
+        <v>1.051487514045056</v>
       </c>
       <c r="M18">
-        <v>0.9875564098135083</v>
+        <v>1.056793583790278</v>
       </c>
       <c r="N18">
-        <v>0.989379082052757</v>
+        <v>1.038055236597527</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9600004351964728</v>
+        <v>1.030564628459217</v>
       </c>
       <c r="D19">
-        <v>0.9872029035010789</v>
+        <v>1.03211533379118</v>
       </c>
       <c r="E19">
-        <v>0.97409952258779</v>
+        <v>1.048327768187347</v>
       </c>
       <c r="F19">
-        <v>0.9739942093655413</v>
+        <v>1.053663204415698</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030273861716865</v>
+        <v>1.030615417827111</v>
       </c>
       <c r="J19">
-        <v>0.9885206130754947</v>
+        <v>1.036676439666748</v>
       </c>
       <c r="K19">
-        <v>1.001180497443059</v>
+        <v>1.03543831542919</v>
       </c>
       <c r="L19">
-        <v>0.9883137910952354</v>
+        <v>1.05159574083081</v>
       </c>
       <c r="M19">
-        <v>0.9882104136575455</v>
+        <v>1.056913480116963</v>
       </c>
       <c r="N19">
-        <v>0.9899244257309612</v>
+        <v>1.038148639119525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9567636852450346</v>
+        <v>1.030022470902364</v>
       </c>
       <c r="D20">
-        <v>0.9849133952029252</v>
+        <v>1.031727710571051</v>
       </c>
       <c r="E20">
-        <v>0.9710838787744824</v>
+        <v>1.047778682635755</v>
       </c>
       <c r="F20">
-        <v>0.9706891349961023</v>
+        <v>1.053062137592967</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029462037845759</v>
+        <v>1.030512667794877</v>
       </c>
       <c r="J20">
-        <v>0.986069412017794</v>
+        <v>1.036259095869064</v>
       </c>
       <c r="K20">
-        <v>0.9992268151798221</v>
+        <v>1.035116244385433</v>
       </c>
       <c r="L20">
-        <v>0.9856549816226544</v>
+        <v>1.051111583183397</v>
       </c>
       <c r="M20">
-        <v>0.9852677339832905</v>
+        <v>1.056377133244064</v>
       </c>
       <c r="N20">
-        <v>0.9874697436866018</v>
+        <v>1.037730702645778</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9458576064681999</v>
+        <v>1.028256359820786</v>
       </c>
       <c r="D21">
-        <v>0.9772124435880689</v>
+        <v>1.030464434964256</v>
       </c>
       <c r="E21">
-        <v>0.9609497666761786</v>
+        <v>1.045991656954053</v>
       </c>
       <c r="F21">
-        <v>0.9595787831986643</v>
+        <v>1.05110605919483</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026710572029221</v>
+        <v>1.030175484778003</v>
       </c>
       <c r="J21">
-        <v>0.9778073655742017</v>
+        <v>1.034898403448302</v>
       </c>
       <c r="K21">
-        <v>0.9926387875428624</v>
+        <v>1.034065296818699</v>
       </c>
       <c r="L21">
-        <v>0.9767107496802182</v>
+        <v>1.049535002710176</v>
       </c>
       <c r="M21">
-        <v>0.97536866332937</v>
+        <v>1.054630871058925</v>
       </c>
       <c r="N21">
-        <v>0.9791959641893893</v>
+        <v>1.036368077885704</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9386769280582899</v>
+        <v>1.027143187738467</v>
       </c>
       <c r="D22">
-        <v>0.9721543101779195</v>
+        <v>1.029667769083383</v>
       </c>
       <c r="E22">
-        <v>0.9542993402866827</v>
+        <v>1.044866571244518</v>
       </c>
       <c r="F22">
-        <v>0.9522844764098256</v>
+        <v>1.049874633614156</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02488731006502</v>
+        <v>1.02996106982565</v>
       </c>
       <c r="J22">
-        <v>0.9723662679538202</v>
+        <v>1.034039870994295</v>
       </c>
       <c r="K22">
-        <v>0.9882983414400867</v>
+        <v>1.033401527764081</v>
       </c>
       <c r="L22">
-        <v>0.9708339550823325</v>
+        <v>1.048541745180967</v>
       </c>
       <c r="M22">
-        <v>0.968864393568688</v>
+        <v>1.053530915298023</v>
       </c>
       <c r="N22">
-        <v>0.9737471395862844</v>
+        <v>1.035508326217138</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.942516314120183</v>
+        <v>1.027733565809632</v>
       </c>
       <c r="D23">
-        <v>0.9748575369070061</v>
+        <v>1.030090326125929</v>
       </c>
       <c r="E23">
-        <v>0.9578530806513348</v>
+        <v>1.045463147585494</v>
       </c>
       <c r="F23">
-        <v>0.956182615238434</v>
+        <v>1.050527587858421</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025863213869879</v>
+        <v>1.03007496499369</v>
       </c>
       <c r="J23">
-        <v>0.9752755860472194</v>
+        <v>1.03449528375067</v>
       </c>
       <c r="K23">
-        <v>0.9906192849342988</v>
+        <v>1.033753690633622</v>
       </c>
       <c r="L23">
-        <v>0.9739749730225914</v>
+        <v>1.0490684827676</v>
       </c>
       <c r="M23">
-        <v>0.9723408049885073</v>
+        <v>1.054114217177234</v>
       </c>
       <c r="N23">
-        <v>0.9766605892450799</v>
+        <v>1.035964385711863</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9569414792544324</v>
+        <v>1.03005203429914</v>
       </c>
       <c r="D24">
-        <v>0.9850391121347741</v>
+        <v>1.031748849505127</v>
       </c>
       <c r="E24">
-        <v>0.971249430649021</v>
+        <v>1.047808617582731</v>
       </c>
       <c r="F24">
-        <v>0.9708705882414664</v>
+        <v>1.053094905980175</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02950669209928</v>
+        <v>1.030518279973544</v>
       </c>
       <c r="J24">
-        <v>0.986204068535033</v>
+        <v>1.036281857689684</v>
       </c>
       <c r="K24">
-        <v>0.9993341523795346</v>
+        <v>1.035133813372099</v>
       </c>
       <c r="L24">
-        <v>0.9858009781976574</v>
+        <v>1.051137981662387</v>
       </c>
       <c r="M24">
-        <v>0.9854293172488792</v>
+        <v>1.056406376322874</v>
       </c>
       <c r="N24">
-        <v>0.9876045914315404</v>
+        <v>1.037753496790794</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9724564677571723</v>
+        <v>1.032730922495528</v>
       </c>
       <c r="D25">
-        <v>0.9960288171199572</v>
+        <v>1.033663289298952</v>
       </c>
       <c r="E25">
-        <v>0.9857405112231766</v>
+        <v>1.050524203637959</v>
       </c>
       <c r="F25">
-        <v>0.9867482394644295</v>
+        <v>1.056067759090974</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033373738178392</v>
+        <v>1.031022294673981</v>
       </c>
       <c r="J25">
-        <v>0.9979477158299491</v>
+        <v>1.038342268553124</v>
       </c>
       <c r="K25">
-        <v>1.008689094989717</v>
+        <v>1.036722548832691</v>
       </c>
       <c r="L25">
-        <v>0.9985642955977948</v>
+        <v>1.053531166732691</v>
       </c>
       <c r="M25">
-        <v>0.9995558153489822</v>
+        <v>1.059057925841902</v>
       </c>
       <c r="N25">
-        <v>0.9993649160526307</v>
+        <v>1.039816833673993</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_110/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0348586989063</v>
+        <v>0.9840097347744965</v>
       </c>
       <c r="D2">
-        <v>1.03518228688624</v>
+        <v>1.00423364314393</v>
       </c>
       <c r="E2">
-        <v>1.052685556582033</v>
+        <v>0.9965917405380651</v>
       </c>
       <c r="F2">
-        <v>1.058434210375272</v>
+        <v>0.9986315367097787</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031415978026885</v>
+        <v>1.036207923795973</v>
       </c>
       <c r="J2">
-        <v>1.039975641509913</v>
+        <v>1.006679462247608</v>
       </c>
       <c r="K2">
-        <v>1.037979625199116</v>
+        <v>1.015634310023481</v>
       </c>
       <c r="L2">
-        <v>1.055433604647065</v>
+        <v>1.008098762939926</v>
       </c>
       <c r="M2">
-        <v>1.061166455185883</v>
+        <v>1.010109969380094</v>
       </c>
       <c r="N2">
-        <v>1.041452526207731</v>
+        <v>1.008109062551748</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036398705491944</v>
+        <v>0.9919888691122895</v>
       </c>
       <c r="D3">
-        <v>1.036280728354912</v>
+        <v>1.009908538226802</v>
       </c>
       <c r="E3">
-        <v>1.054252431329086</v>
+        <v>1.004118822310911</v>
       </c>
       <c r="F3">
-        <v>1.060149970306888</v>
+        <v>1.006871808453173</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031697048063639</v>
+        <v>1.038137275065096</v>
       </c>
       <c r="J3">
-        <v>1.041155972686871</v>
+        <v>1.012700333916944</v>
       </c>
       <c r="K3">
-        <v>1.038886639757722</v>
+        <v>1.020416188043762</v>
       </c>
       <c r="L3">
-        <v>1.056811441345373</v>
+        <v>1.014699271914554</v>
       </c>
       <c r="M3">
-        <v>1.062693962937536</v>
+        <v>1.017417511834136</v>
       </c>
       <c r="N3">
-        <v>1.042634533590346</v>
+        <v>1.014138484549459</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037392972569845</v>
+        <v>0.9969810539499907</v>
       </c>
       <c r="D4">
-        <v>1.036989459457073</v>
+        <v>1.0134617747027</v>
       </c>
       <c r="E4">
-        <v>1.055265232647773</v>
+        <v>1.008842793025617</v>
       </c>
       <c r="F4">
-        <v>1.061259101552275</v>
+        <v>1.012042361090539</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031876722318253</v>
+        <v>1.039330866615787</v>
       </c>
       <c r="J4">
-        <v>1.04191716716419</v>
+        <v>1.01646230121271</v>
       </c>
       <c r="K4">
-        <v>1.039470924486024</v>
+        <v>1.023400398226286</v>
       </c>
       <c r="L4">
-        <v>1.0577014343427</v>
+        <v>1.018835652132346</v>
       </c>
       <c r="M4">
-        <v>1.063680823197225</v>
+        <v>1.021997586015854</v>
       </c>
       <c r="N4">
-        <v>1.043396809051133</v>
+        <v>1.017905794270287</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037810440644078</v>
+        <v>0.9990413470058279</v>
       </c>
       <c r="D5">
-        <v>1.037286928819531</v>
+        <v>1.014928704560738</v>
       </c>
       <c r="E5">
-        <v>1.055690767137729</v>
+        <v>1.010795830826018</v>
       </c>
       <c r="F5">
-        <v>1.061725132063025</v>
+        <v>1.014179818644418</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031951733448762</v>
+        <v>1.039820144238822</v>
       </c>
       <c r="J5">
-        <v>1.042236568038801</v>
+        <v>1.018013594660915</v>
       </c>
       <c r="K5">
-        <v>1.039715937336161</v>
+        <v>1.024630063062574</v>
       </c>
       <c r="L5">
-        <v>1.058075222600292</v>
+        <v>1.020544305567723</v>
       </c>
       <c r="M5">
-        <v>1.064095340101512</v>
+        <v>1.023889679584754</v>
       </c>
       <c r="N5">
-        <v>1.043716663511621</v>
+        <v>1.019459290733125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037880505052463</v>
+        <v>0.9993850940277587</v>
       </c>
       <c r="D6">
-        <v>1.037336847183029</v>
+        <v>1.015173477545259</v>
       </c>
       <c r="E6">
-        <v>1.055762202025601</v>
+        <v>1.011121883347767</v>
       </c>
       <c r="F6">
-        <v>1.061803366376928</v>
+        <v>1.014536647820175</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031964297482231</v>
+        <v>1.039901579514885</v>
       </c>
       <c r="J6">
-        <v>1.042290161567373</v>
+        <v>1.018272340514989</v>
       </c>
       <c r="K6">
-        <v>1.039757039845187</v>
+        <v>1.02483510844998</v>
       </c>
       <c r="L6">
-        <v>1.058137962148778</v>
+        <v>1.020829473434663</v>
       </c>
       <c r="M6">
-        <v>1.064164918524633</v>
+        <v>1.024205472624781</v>
       </c>
       <c r="N6">
-        <v>1.043770333149151</v>
+        <v>1.01971840403599</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037398552837078</v>
+        <v>0.997008731550404</v>
       </c>
       <c r="D7">
-        <v>1.036993436140966</v>
+        <v>1.013481479401186</v>
       </c>
       <c r="E7">
-        <v>1.055270919620216</v>
+        <v>1.008869016247367</v>
       </c>
       <c r="F7">
-        <v>1.061265329637529</v>
+        <v>1.012071061291873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031877726676875</v>
+        <v>1.039337452741538</v>
       </c>
       <c r="J7">
-        <v>1.041921437383724</v>
+        <v>1.016483146193737</v>
       </c>
       <c r="K7">
-        <v>1.039474200791013</v>
+        <v>1.023416925099155</v>
       </c>
       <c r="L7">
-        <v>1.05770643034256</v>
+        <v>1.018858599792896</v>
       </c>
       <c r="M7">
-        <v>1.063686363392021</v>
+        <v>1.022022996679217</v>
       </c>
       <c r="N7">
-        <v>1.043401085334868</v>
+        <v>1.017926668853579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035379616903307</v>
+        <v>0.9867432656223228</v>
       </c>
       <c r="D8">
-        <v>1.035553934945533</v>
+        <v>1.006177104050171</v>
       </c>
       <c r="E8">
-        <v>1.053215316706337</v>
+        <v>0.9991672676193439</v>
       </c>
       <c r="F8">
-        <v>1.05901428936664</v>
+        <v>1.001451329359817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031511423047827</v>
+        <v>1.036871700130765</v>
       </c>
       <c r="J8">
-        <v>1.040375074155712</v>
+        <v>1.008743133189</v>
       </c>
       <c r="K8">
-        <v>1.038286699614192</v>
+        <v>1.017274047638666</v>
       </c>
       <c r="L8">
-        <v>1.055899579069422</v>
+        <v>1.010358530621747</v>
       </c>
       <c r="M8">
-        <v>1.061683007991642</v>
+        <v>1.012611677291677</v>
       </c>
       <c r="N8">
-        <v>1.041852526093702</v>
+        <v>1.010175664142584</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031804553148846</v>
+        <v>0.9672201971155205</v>
       </c>
       <c r="D9">
-        <v>1.033001512763185</v>
+        <v>0.9923157919326322</v>
       </c>
       <c r="E9">
-        <v>1.049584457144414</v>
+        <v>0.9808397921954191</v>
       </c>
       <c r="F9">
-        <v>1.055038931719709</v>
+        <v>0.9813797299603186</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030849033274505</v>
+        <v>1.032075628201252</v>
       </c>
       <c r="J9">
-        <v>1.037630259800056</v>
+        <v>0.993986072563649</v>
       </c>
       <c r="K9">
-        <v>1.036173903117914</v>
+        <v>1.005534782613938</v>
       </c>
       <c r="L9">
-        <v>1.052703348290705</v>
+        <v>0.9942515728016001</v>
       </c>
       <c r="M9">
-        <v>1.05814062776088</v>
+        <v>0.9947823094074877</v>
       </c>
       <c r="N9">
-        <v>1.039103813786826</v>
+        <v>0.9953976467984854</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029408837293565</v>
+        <v>0.9530387232518628</v>
       </c>
       <c r="D10">
-        <v>1.031288884022143</v>
+        <v>0.9822807462709771</v>
       </c>
       <c r="E10">
-        <v>1.047157497773954</v>
+        <v>0.9676179588766338</v>
       </c>
       <c r="F10">
-        <v>1.052382167537013</v>
+        <v>0.9668899752793053</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030395938249248</v>
+        <v>1.028524931754318</v>
       </c>
       <c r="J10">
-        <v>1.035786525554226</v>
+        <v>0.9832479316414351</v>
       </c>
       <c r="K10">
-        <v>1.034751399737719</v>
+        <v>0.9969774708850847</v>
       </c>
       <c r="L10">
-        <v>1.050563699913741</v>
+        <v>0.9825975754448086</v>
       </c>
       <c r="M10">
-        <v>1.055770237834187</v>
+        <v>0.9818839305890988</v>
       </c>
       <c r="N10">
-        <v>1.037257461226887</v>
+        <v>0.9846442564844802</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028368401535679</v>
+        <v>0.9465667304834238</v>
       </c>
       <c r="D11">
-        <v>1.030544602081528</v>
+        <v>0.9777125036782873</v>
       </c>
       <c r="E11">
-        <v>1.046104951486897</v>
+        <v>0.9616074593151379</v>
       </c>
       <c r="F11">
-        <v>1.051230065932639</v>
+        <v>0.9603000087102038</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030196985911631</v>
+        <v>1.026890161239086</v>
       </c>
       <c r="J11">
-        <v>1.034984777701611</v>
+        <v>0.978344665266021</v>
       </c>
       <c r="K11">
-        <v>1.034132048228731</v>
+        <v>0.9930673352308022</v>
       </c>
       <c r="L11">
-        <v>1.049634994144926</v>
+        <v>0.977291634129473</v>
       </c>
       <c r="M11">
-        <v>1.054741612399846</v>
+        <v>0.9760115617463916</v>
       </c>
       <c r="N11">
-        <v>1.036454574800361</v>
+        <v>0.9797340269084002</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027981463450201</v>
+        <v>0.944107409348599</v>
       </c>
       <c r="D12">
-        <v>1.030267729413838</v>
+        <v>0.9759786526456361</v>
       </c>
       <c r="E12">
-        <v>1.045713728629044</v>
+        <v>0.9593272310744184</v>
       </c>
       <c r="F12">
-        <v>1.050801855310405</v>
+        <v>0.9577994025653622</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030122669038401</v>
+        <v>1.026266952919858</v>
       </c>
       <c r="J12">
-        <v>1.03468645319292</v>
+        <v>0.9764812159090259</v>
       </c>
       <c r="K12">
-        <v>1.033901476159345</v>
+        <v>0.9915810021328916</v>
       </c>
       <c r="L12">
-        <v>1.049289686903293</v>
+        <v>0.9752774656492689</v>
       </c>
       <c r="M12">
-        <v>1.054359188456337</v>
+        <v>0.9737823603215143</v>
       </c>
       <c r="N12">
-        <v>1.03615582663665</v>
+        <v>0.9778679312395775</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028064484621766</v>
+        <v>0.944637545084659</v>
       </c>
       <c r="D13">
-        <v>1.030327138356414</v>
+        <v>0.9763523061609233</v>
       </c>
       <c r="E13">
-        <v>1.045797659223051</v>
+        <v>0.9598185896777606</v>
       </c>
       <c r="F13">
-        <v>1.050893720309309</v>
+        <v>0.9583382755671894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030138629177091</v>
+        <v>1.026401380664459</v>
       </c>
       <c r="J13">
-        <v>1.034750468474347</v>
+        <v>0.9768829120755551</v>
       </c>
       <c r="K13">
-        <v>1.033950958171809</v>
+        <v>0.9919014176098677</v>
       </c>
       <c r="L13">
-        <v>1.049363772240048</v>
+        <v>0.9757115475798717</v>
       </c>
       <c r="M13">
-        <v>1.054441235562819</v>
+        <v>0.9742627860988257</v>
       </c>
       <c r="N13">
-        <v>1.036219932827119</v>
+        <v>0.9782701978607387</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02833642685011</v>
+        <v>0.9463646063576815</v>
       </c>
       <c r="D14">
-        <v>1.030521724171918</v>
+        <v>0.977569960023324</v>
       </c>
       <c r="E14">
-        <v>1.046072618259682</v>
+        <v>0.9614199775867793</v>
       </c>
       <c r="F14">
-        <v>1.051194675465555</v>
+        <v>0.9600944188857495</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030190851379779</v>
+        <v>1.026838981315811</v>
       </c>
       <c r="J14">
-        <v>1.034960128758114</v>
+        <v>0.9781915177358006</v>
       </c>
       <c r="K14">
-        <v>1.034112999662813</v>
+        <v>0.9929451868414348</v>
       </c>
       <c r="L14">
-        <v>1.049606458030501</v>
+        <v>0.9771260529737337</v>
       </c>
       <c r="M14">
-        <v>1.054710008255877</v>
+        <v>0.9758283036007461</v>
       </c>
       <c r="N14">
-        <v>1.036429890852537</v>
+        <v>0.9795806618911206</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02850391627418</v>
+        <v>0.9474211920911635</v>
       </c>
       <c r="D15">
-        <v>1.030641559942816</v>
+        <v>0.9783151797009918</v>
       </c>
       <c r="E15">
-        <v>1.046241994762301</v>
+        <v>0.9624001739763675</v>
       </c>
       <c r="F15">
-        <v>1.051380067873935</v>
+        <v>0.9611692658940285</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03022297185277</v>
+        <v>1.027106439370518</v>
       </c>
       <c r="J15">
-        <v>1.035089238247028</v>
+        <v>0.9789920742284088</v>
       </c>
       <c r="K15">
-        <v>1.034212770015696</v>
+        <v>0.9935836875645004</v>
       </c>
       <c r="L15">
-        <v>1.049755938782699</v>
+        <v>0.9779916982461373</v>
       </c>
       <c r="M15">
-        <v>1.05487556170193</v>
+        <v>0.976786362031538</v>
       </c>
       <c r="N15">
-        <v>1.036559183691734</v>
+        <v>0.9803823552657736</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02947782178547</v>
+        <v>0.9534608127796769</v>
       </c>
       <c r="D16">
-        <v>1.031338222013185</v>
+        <v>0.9825789404657249</v>
       </c>
       <c r="E16">
-        <v>1.047227315927514</v>
+        <v>0.968010451562889</v>
       </c>
       <c r="F16">
-        <v>1.052458591726586</v>
+        <v>0.967320237745543</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030409083708095</v>
+        <v>1.028631264434494</v>
       </c>
       <c r="J16">
-        <v>1.035839662541792</v>
+        <v>0.9835676701974604</v>
       </c>
       <c r="K16">
-        <v>1.034792431882884</v>
+        <v>0.9972323998664336</v>
       </c>
       <c r="L16">
-        <v>1.050625287311882</v>
+        <v>0.982943890647022</v>
       </c>
       <c r="M16">
-        <v>1.055838456335216</v>
+        <v>0.9822672161420565</v>
       </c>
       <c r="N16">
-        <v>1.037310673675071</v>
+        <v>0.9849644491059293</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03008789532949</v>
+        <v>0.957156944482631</v>
       </c>
       <c r="D17">
-        <v>1.031774491149485</v>
+        <v>0.9851914732707969</v>
       </c>
       <c r="E17">
-        <v>1.047844930272213</v>
+        <v>0.9714500748732044</v>
       </c>
       <c r="F17">
-        <v>1.053134655855689</v>
+        <v>0.97109050254643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030525086230553</v>
+        <v>1.029560798437284</v>
       </c>
       <c r="J17">
-        <v>1.036309467582625</v>
+        <v>0.9863672543950172</v>
       </c>
       <c r="K17">
-        <v>1.035155123890688</v>
+        <v>0.9994642290655672</v>
       </c>
       <c r="L17">
-        <v>1.051170003924254</v>
+        <v>0.9859779166934804</v>
       </c>
       <c r="M17">
-        <v>1.056441849335459</v>
+        <v>0.9856251459176304</v>
       </c>
       <c r="N17">
-        <v>1.037781145892949</v>
+        <v>0.9877680090341635</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030443445027365</v>
+        <v>0.9592812860405319</v>
       </c>
       <c r="D18">
-        <v>1.032028699305496</v>
+        <v>0.9866940656011631</v>
       </c>
       <c r="E18">
-        <v>1.048205015180762</v>
+        <v>0.9734291756867303</v>
       </c>
       <c r="F18">
-        <v>1.053528828956184</v>
+        <v>0.9732595656696822</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0305924824923</v>
+        <v>1.030093694686199</v>
       </c>
       <c r="J18">
-        <v>1.036583169598945</v>
+        <v>0.9879760427496151</v>
       </c>
       <c r="K18">
-        <v>1.035366348593622</v>
+        <v>1.000746498742068</v>
       </c>
       <c r="L18">
-        <v>1.051487514045056</v>
+        <v>0.9877228793277545</v>
       </c>
       <c r="M18">
-        <v>1.056793583790278</v>
+        <v>0.9875564098135073</v>
       </c>
       <c r="N18">
-        <v>1.038055236597527</v>
+        <v>0.9893790820527554</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030564628459217</v>
+        <v>0.9600004351964725</v>
       </c>
       <c r="D19">
-        <v>1.03211533379118</v>
+        <v>0.9872029035010784</v>
       </c>
       <c r="E19">
-        <v>1.048327768187347</v>
+        <v>0.9740995225877906</v>
       </c>
       <c r="F19">
-        <v>1.053663204415698</v>
+        <v>0.9739942093655417</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030615417827111</v>
+        <v>1.030273861716865</v>
       </c>
       <c r="J19">
-        <v>1.036676439666748</v>
+        <v>0.9885206130754943</v>
       </c>
       <c r="K19">
-        <v>1.03543831542919</v>
+        <v>1.001180497443059</v>
       </c>
       <c r="L19">
-        <v>1.05159574083081</v>
+        <v>0.988313791095236</v>
       </c>
       <c r="M19">
-        <v>1.056913480116963</v>
+        <v>0.9882104136575462</v>
       </c>
       <c r="N19">
-        <v>1.038148639119525</v>
+        <v>0.9899244257309608</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030022470902364</v>
+        <v>0.9567636852450327</v>
       </c>
       <c r="D20">
-        <v>1.031727710571051</v>
+        <v>0.9849133952029234</v>
       </c>
       <c r="E20">
-        <v>1.047778682635755</v>
+        <v>0.9710838787744805</v>
       </c>
       <c r="F20">
-        <v>1.053062137592967</v>
+        <v>0.9706891349961004</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030512667794877</v>
+        <v>1.029462037845758</v>
       </c>
       <c r="J20">
-        <v>1.036259095869064</v>
+        <v>0.9860694120177921</v>
       </c>
       <c r="K20">
-        <v>1.035116244385433</v>
+        <v>0.9992268151798207</v>
       </c>
       <c r="L20">
-        <v>1.051111583183397</v>
+        <v>0.9856549816226526</v>
       </c>
       <c r="M20">
-        <v>1.056377133244064</v>
+        <v>0.9852677339832884</v>
       </c>
       <c r="N20">
-        <v>1.037730702645778</v>
+        <v>0.9874697436865997</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028256359820786</v>
+        <v>0.9458576064682011</v>
       </c>
       <c r="D21">
-        <v>1.030464434964256</v>
+        <v>0.9772124435880698</v>
       </c>
       <c r="E21">
-        <v>1.045991656954053</v>
+        <v>0.9609497666761803</v>
       </c>
       <c r="F21">
-        <v>1.05110605919483</v>
+        <v>0.9595787831986662</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030175484778003</v>
+        <v>1.026710572029221</v>
       </c>
       <c r="J21">
-        <v>1.034898403448302</v>
+        <v>0.9778073655742024</v>
       </c>
       <c r="K21">
-        <v>1.034065296818699</v>
+        <v>0.9926387875428634</v>
       </c>
       <c r="L21">
-        <v>1.049535002710176</v>
+        <v>0.9767107496802199</v>
       </c>
       <c r="M21">
-        <v>1.054630871058925</v>
+        <v>0.9753686633293719</v>
       </c>
       <c r="N21">
-        <v>1.036368077885704</v>
+        <v>0.9791959641893905</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027143187738467</v>
+        <v>0.9386769280582907</v>
       </c>
       <c r="D22">
-        <v>1.029667769083383</v>
+        <v>0.9721543101779203</v>
       </c>
       <c r="E22">
-        <v>1.044866571244518</v>
+        <v>0.9542993402866835</v>
       </c>
       <c r="F22">
-        <v>1.049874633614156</v>
+        <v>0.9522844764098261</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02996106982565</v>
+        <v>1.024887310065021</v>
       </c>
       <c r="J22">
-        <v>1.034039870994295</v>
+        <v>0.9723662679538209</v>
       </c>
       <c r="K22">
-        <v>1.033401527764081</v>
+        <v>0.9882983414400874</v>
       </c>
       <c r="L22">
-        <v>1.048541745180967</v>
+        <v>0.9708339550823331</v>
       </c>
       <c r="M22">
-        <v>1.053530915298023</v>
+        <v>0.9688643935686887</v>
       </c>
       <c r="N22">
-        <v>1.035508326217138</v>
+        <v>0.973747139586285</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027733565809632</v>
+        <v>0.9425163141201842</v>
       </c>
       <c r="D23">
-        <v>1.030090326125929</v>
+        <v>0.9748575369070068</v>
       </c>
       <c r="E23">
-        <v>1.045463147585494</v>
+        <v>0.9578530806513358</v>
       </c>
       <c r="F23">
-        <v>1.050527587858421</v>
+        <v>0.9561826152384352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03007496499369</v>
+        <v>1.025863213869879</v>
       </c>
       <c r="J23">
-        <v>1.03449528375067</v>
+        <v>0.9752755860472205</v>
       </c>
       <c r="K23">
-        <v>1.033753690633622</v>
+        <v>0.9906192849342997</v>
       </c>
       <c r="L23">
-        <v>1.0490684827676</v>
+        <v>0.9739749730225926</v>
       </c>
       <c r="M23">
-        <v>1.054114217177234</v>
+        <v>0.9723408049885083</v>
       </c>
       <c r="N23">
-        <v>1.035964385711863</v>
+        <v>0.9766605892450809</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03005203429914</v>
+        <v>0.9569414792544317</v>
       </c>
       <c r="D24">
-        <v>1.031748849505127</v>
+        <v>0.9850391121347735</v>
       </c>
       <c r="E24">
-        <v>1.047808617582731</v>
+        <v>0.9712494306490206</v>
       </c>
       <c r="F24">
-        <v>1.053094905980175</v>
+        <v>0.9708705882414658</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030518279973544</v>
+        <v>1.02950669209928</v>
       </c>
       <c r="J24">
-        <v>1.036281857689684</v>
+        <v>0.9862040685350322</v>
       </c>
       <c r="K24">
-        <v>1.035133813372099</v>
+        <v>0.9993341523795339</v>
       </c>
       <c r="L24">
-        <v>1.051137981662387</v>
+        <v>0.9858009781976571</v>
       </c>
       <c r="M24">
-        <v>1.056406376322874</v>
+        <v>0.9854293172488785</v>
       </c>
       <c r="N24">
-        <v>1.037753496790794</v>
+        <v>0.9876045914315397</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032730922495528</v>
+        <v>0.9724564677571711</v>
       </c>
       <c r="D25">
-        <v>1.033663289298952</v>
+        <v>0.9960288171199561</v>
       </c>
       <c r="E25">
-        <v>1.050524203637959</v>
+        <v>0.9857405112231767</v>
       </c>
       <c r="F25">
-        <v>1.056067759090974</v>
+        <v>0.9867482394644294</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031022294673981</v>
+        <v>1.033373738178392</v>
       </c>
       <c r="J25">
-        <v>1.038342268553124</v>
+        <v>0.9979477158299479</v>
       </c>
       <c r="K25">
-        <v>1.036722548832691</v>
+        <v>1.008689094989716</v>
       </c>
       <c r="L25">
-        <v>1.053531166732691</v>
+        <v>0.9985642955977949</v>
       </c>
       <c r="M25">
-        <v>1.059057925841902</v>
+        <v>0.9995558153489821</v>
       </c>
       <c r="N25">
-        <v>1.039816833673993</v>
+        <v>0.9993649160526296</v>
       </c>
     </row>
   </sheetData>
